--- a/OHM_application.xlsx
+++ b/OHM_application.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Training-06\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1481D3CA-EE3E-423E-BFC4-7D6F71894679}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8775" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="welcome_screen" sheetId="1" r:id="rId1"/>
     <sheet name="event_list" sheetId="2" r:id="rId2"/>
     <sheet name="create_event" sheetId="3" r:id="rId3"/>
     <sheet name="edit_event" sheetId="4" r:id="rId4"/>
+    <sheet name="edit_vaccine_type" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="178">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -134,9 +141,6 @@
 3. user should click on application icon.</t>
   </si>
   <si>
-    <t>alert should come with message "please  enter valid url".</t>
-  </si>
-  <si>
     <t>To Verify un-successful login with blank field.</t>
   </si>
   <si>
@@ -147,10 +151,6 @@
 </t>
   </si>
   <si>
-    <t>Action 1 : enter url which doen not any account.
-Action 2 : click on login button.</t>
-  </si>
-  <si>
     <t>Action 1 : click on login button.</t>
   </si>
   <si>
@@ -159,17 +159,6 @@
   </si>
   <si>
     <t>Welcome Screen - performance test cases</t>
-  </si>
-  <si>
-    <t>Action 1 : enter valid URL in  url field.
-Action 2 : enter valid account number.
-Action 3 : enter valid username.
-Action 4 : enter valid password.
-Action 5 : click on login button.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hourclock symbol
-should come.</t>
   </si>
   <si>
     <t>To Verify loading time if it is more than default loading time.</t>
@@ -183,9 +172,6 @@
 3.user should click on application icon.</t>
   </si>
   <si>
-    <t>url and account details should be populated.</t>
-  </si>
-  <si>
     <t>To verify the url and account details  after first successful login.</t>
   </si>
   <si>
@@ -198,9 +184,6 @@
     <t>Welcome Screen - Usability test cases</t>
   </si>
   <si>
-    <t xml:space="preserve">user should fill account details again to login into application. </t>
-  </si>
-  <si>
     <t>Welcome Screen - UI Validation test cases</t>
   </si>
   <si>
@@ -211,9 +194,6 @@
   </si>
   <si>
     <t>To Verify if  iPAD is inactive and auto lock is invoked.</t>
-  </si>
-  <si>
-    <t>after clicking on login, event screen should come.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Internet connection should be available.
@@ -222,9 +202,6 @@
   </si>
   <si>
     <t>Action 1 :  user should click on application icon.</t>
-  </si>
-  <si>
-    <t>OHM application icon should be displayed with prescribed logo containing text "UL".</t>
   </si>
   <si>
     <t>TC_OHM_09</t>
@@ -319,9 +296,6 @@
 Action 2 : enter some search criteria.</t>
   </si>
   <si>
-    <t>searched event should be display.</t>
-  </si>
-  <si>
     <t>Event_list Screen - UI validation test cases</t>
   </si>
   <si>
@@ -395,11 +369,6 @@
     <t>To Verify successful creation of an event.</t>
   </si>
   <si>
-    <t>Action 1 : fill the unique event code in respective field.
-Action 2 : fill the event name in respective field.
-Action 3 : click on done button which is placed on top right corner of child window.</t>
-  </si>
-  <si>
     <t>event creation - UI Validation test cases</t>
   </si>
   <si>
@@ -416,9 +385,6 @@
   </si>
   <si>
     <t>Action 1 : focus on event code field.</t>
-  </si>
-  <si>
-    <t>new event should be added in event list screen.</t>
   </si>
   <si>
     <t>Action 1 : focus on event name field.</t>
@@ -589,11 +555,159 @@
   <si>
     <t>Action 1 : click on back, which is placed on top left corner of heading of the page.</t>
   </si>
+  <si>
+    <t>Action 1 : enter valid URL in  url field, valid account number,
+ valid username and valid password in respective fields.
+Action 2  : click on login button.</t>
+  </si>
+  <si>
+    <t>Action 1 : enter the url which does not have any account.
+Action 2 : click on login button.</t>
+  </si>
+  <si>
+    <t>1. After filling invalid url, it should populated with message "please enter valid url".
+2. After clicking on login, fields should be empty and should ask again for login.</t>
+  </si>
+  <si>
+    <t>1. After filling data, fields should be populated.
+2. after clicking on login, event screen should come.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. After filling data, 
+url and account details should be populated.
+2. hourclock symbol
+should come.</t>
+  </si>
+  <si>
+    <t>OHM application icon should get displayed with prescribed logo containing text "UL".</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Test Status</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Proof</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>1. Internet connection should be available.
+2. OHM application should be installed.
+3. user should be in welcome screen.</t>
+  </si>
+  <si>
+    <t>1. Internet connection should be available.
+2. OHM application should be installed.
+3.  user should click on application icon.</t>
+  </si>
+  <si>
+    <t>1. All the fields should be populated with pre-filled data.</t>
+  </si>
+  <si>
+    <t>URL : http://ohm_99_somi.com
+Account : 12345
+username : somi
+password : Xyz@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL : http://ohm_99_sana.com
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should be able to fill account details again to login into application. </t>
+  </si>
+  <si>
+    <t>1.focus should be search bar.
+2. searched event should be display.</t>
+  </si>
+  <si>
+    <t>event code : OHMHF5</t>
+  </si>
+  <si>
+    <t>event name : Jan Health Fair</t>
+  </si>
+  <si>
+    <t>To Verify the "done" button in "create an event" screen.</t>
+  </si>
+  <si>
+    <t>Action 1 : fill the unique event code in respective field, event name in respective field.
+Action 2 : click on done button which is placed on top right corner of child window.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. event code, event name and description should be populated in respective field.
+2. new event should be added in event list screen.
+</t>
+  </si>
+  <si>
+    <t>"Done" button should be placed in top right corner of "create an event" screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Internet connection should be available.
+2. user should be successfully logged in.
+3. user should be in event list screen.
+4. user should be clicked "+" sign.
+</t>
+  </si>
+  <si>
+    <t>event code : OHMHF5
+event name : Jan Health Fair
+event Description : xyz health fair was there…........</t>
+  </si>
+  <si>
+    <t>edit vaccine type- Functional test cases</t>
+  </si>
+  <si>
+    <t>To verify the navigation to "edit vaccine type" page.</t>
+  </si>
+  <si>
+    <t>Action 1: select the vaccine type.
+Action 2:  click on the edit button in event list screen.
+Action 3: select a vaccine type for that event.</t>
+  </si>
+  <si>
+    <t>1. vaccine type look should be display.
+2. vaccine type look up should be display.
+3. selected vaccine type should be saved for that event.</t>
+  </si>
+  <si>
+    <t>To Verify the navigation of “Add vaccine type” .</t>
+  </si>
+  <si>
+    <t>Action 1: click on the "add vaccine type" button, which is placed on bottom left corner of preview screen.</t>
+  </si>
+  <si>
+    <t>vaccine type look up should display.</t>
+  </si>
+  <si>
+    <t>Verify to add vaccine type for event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action 1 : click on add vaccine type button.
+Action 2 : select one vaccine type for that event.
+</t>
+  </si>
+  <si>
+    <t>1. vaccine type look up should display.
+2. selected vaccine type should be saved.
+3. by default t the lot #, consent form and site details will be derived from the vaccine type.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -636,7 +750,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,6 +784,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,17 +839,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -749,9 +864,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -767,6 +879,7 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -778,12 +891,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Excel_BuiltIn_Good" xfId="3"/>
+    <cellStyle name="Excel_BuiltIn_Good" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -791,6 +910,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -839,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -872,9 +994,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -907,6 +1046,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1082,11 +1238,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,302 +1252,335 @@
     <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="D9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
+      <c r="C19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="B13">
     <cfRule type="dataBar" priority="1">
@@ -1432,11 +1621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,230 +1635,253 @@
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="A1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="E6" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11" t="s">
+    </row>
+    <row r="8" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="D8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="9" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="E11" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="16" t="s">
+    </row>
+    <row r="13" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="C13" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="D13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1683,11 +1895,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,200 +1909,250 @@
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="A1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="H6" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="C7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="11" t="s">
+    </row>
+    <row r="10" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="C10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="E10" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="1:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>108</v>
-      </c>
+    </row>
+    <row r="12" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1903,11 +2165,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,281 +2179,303 @@
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="A1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:17" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="E5" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="11" t="s">
+    </row>
+    <row r="8" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="C8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="E8" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="E9" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="C12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>122</v>
+      <c r="E16" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2202,4 +2486,160 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F2296B-A007-48E1-A936-18618508F2E5}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>